--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H2">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>0.1527822130633334</v>
+        <v>1.124363602288111</v>
       </c>
       <c r="R2">
-        <v>1.37503991757</v>
+        <v>10.119272420593</v>
       </c>
       <c r="S2">
-        <v>0.03392161445047896</v>
+        <v>0.1032804299525234</v>
       </c>
       <c r="T2">
-        <v>0.03392161445047897</v>
+        <v>0.1032804299525234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H3">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
-        <v>0.09305491368555556</v>
+        <v>0.2575264484854444</v>
       </c>
       <c r="R3">
-        <v>0.83749422317</v>
+        <v>2.317738036369</v>
       </c>
       <c r="S3">
-        <v>0.02066060467035851</v>
+        <v>0.02365555258956848</v>
       </c>
       <c r="T3">
-        <v>0.02066060467035851</v>
+        <v>0.02365555258956847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H4">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>0.03559539806777778</v>
+        <v>0.1286942236937778</v>
       </c>
       <c r="R4">
-        <v>0.3203585826100001</v>
+        <v>1.158248013244</v>
       </c>
       <c r="S4">
-        <v>0.007903101710969142</v>
+        <v>0.0118214381259326</v>
       </c>
       <c r="T4">
-        <v>0.007903101710969144</v>
+        <v>0.01182143812593259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H5">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>0.001059217512222222</v>
+        <v>0.01425244965044445</v>
       </c>
       <c r="R5">
-        <v>0.00953295761</v>
+        <v>0.128272046854</v>
       </c>
       <c r="S5">
-        <v>0.0002351737636756405</v>
+        <v>0.001309184257458206</v>
       </c>
       <c r="T5">
-        <v>0.0002351737636756406</v>
+        <v>0.001309184257458205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>2.381805</v>
       </c>
       <c r="I6">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J6">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>2.121974686485</v>
+        <v>5.642760954644999</v>
       </c>
       <c r="R6">
-        <v>19.097772178365</v>
+        <v>50.784848591805</v>
       </c>
       <c r="S6">
-        <v>0.47113342414265</v>
+        <v>0.518325901273449</v>
       </c>
       <c r="T6">
-        <v>0.4711334241426501</v>
+        <v>0.5183259012734488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.381805</v>
       </c>
       <c r="I7">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J7">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
         <v>1.292429055285</v>
@@ -883,10 +883,10 @@
         <v>11.631861497565</v>
       </c>
       <c r="S7">
-        <v>0.2869527757121887</v>
+        <v>0.1187183827734441</v>
       </c>
       <c r="T7">
-        <v>0.2869527757121889</v>
+        <v>0.118718382773444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.381805</v>
       </c>
       <c r="I8">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J8">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>0.4943804134050001</v>
+        <v>0.64586823966</v>
       </c>
       <c r="R8">
-        <v>4.449423720645</v>
+        <v>5.81281415694</v>
       </c>
       <c r="S8">
-        <v>0.1097652759385087</v>
+        <v>0.05932738248464871</v>
       </c>
       <c r="T8">
-        <v>0.1097652759385087</v>
+        <v>0.0593273824846487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>2.381805</v>
       </c>
       <c r="I9">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J9">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>0.014711350905</v>
+        <v>0.07152772131</v>
       </c>
       <c r="R9">
-        <v>0.132402158145</v>
+        <v>0.6437494917900001</v>
       </c>
       <c r="S9">
-        <v>0.003266301511408588</v>
+        <v>0.006570306789892058</v>
       </c>
       <c r="T9">
-        <v>0.00326630151140859</v>
+        <v>0.006570306789892057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H10">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I10">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J10">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N10">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O10">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P10">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q10">
-        <v>0.1506502646356667</v>
+        <v>0.8528065975521111</v>
       </c>
       <c r="R10">
-        <v>1.355852381721</v>
+        <v>7.675259377969</v>
       </c>
       <c r="S10">
-        <v>0.03344826659707646</v>
+        <v>0.07833607552066696</v>
       </c>
       <c r="T10">
-        <v>0.03344826659707646</v>
+        <v>0.07833607552066692</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H11">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I11">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J11">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.883633</v>
       </c>
       <c r="O11">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P11">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q11">
-        <v>0.09175640993344444</v>
+        <v>0.1953284985974444</v>
       </c>
       <c r="R11">
-        <v>0.8258076894009999</v>
+        <v>1.757956487377</v>
       </c>
       <c r="S11">
-        <v>0.02037230315437409</v>
+        <v>0.01794224864276206</v>
       </c>
       <c r="T11">
-        <v>0.0203723031543741</v>
+        <v>0.01794224864276205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H12">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I12">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J12">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N12">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q12">
-        <v>0.03509869395922223</v>
+        <v>0.09761191380577776</v>
       </c>
       <c r="R12">
-        <v>0.315888245633</v>
+        <v>0.8785072242519999</v>
       </c>
       <c r="S12">
-        <v>0.007792820514430864</v>
+        <v>0.008966316951058761</v>
       </c>
       <c r="T12">
-        <v>0.007792820514430867</v>
+        <v>0.008966316951058758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H13">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I13">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J13">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N13">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O13">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P13">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q13">
-        <v>0.001044437014777778</v>
+        <v>0.01081018904244444</v>
       </c>
       <c r="R13">
-        <v>0.009399933132999999</v>
+        <v>0.097291701382</v>
       </c>
       <c r="S13">
-        <v>0.0002318921098388231</v>
+        <v>0.00099298925178621</v>
       </c>
       <c r="T13">
-        <v>0.0002318921098388232</v>
+        <v>0.0009929892517862098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H14">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N14">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O14">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P14">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q14">
-        <v>0.010514523754</v>
+        <v>0.4074184259967777</v>
       </c>
       <c r="R14">
-        <v>0.09463071378600001</v>
+        <v>3.666765833971</v>
       </c>
       <c r="S14">
-        <v>0.00233449701874484</v>
+        <v>0.03742414831100627</v>
       </c>
       <c r="T14">
-        <v>0.002334497018744841</v>
+        <v>0.03742414831100626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H15">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.883633</v>
       </c>
       <c r="O15">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P15">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q15">
-        <v>0.006404070740666666</v>
+        <v>0.0933159167381111</v>
       </c>
       <c r="R15">
-        <v>0.057636636666</v>
+        <v>0.8398432506429999</v>
       </c>
       <c r="S15">
-        <v>0.00142186982517681</v>
+        <v>0.008571700455718229</v>
       </c>
       <c r="T15">
-        <v>0.00142186982517681</v>
+        <v>0.008571700455718223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H16">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N16">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q16">
-        <v>0.002449687375333334</v>
+        <v>0.04663295569644443</v>
       </c>
       <c r="R16">
-        <v>0.022047186378</v>
+        <v>0.419696601268</v>
       </c>
       <c r="S16">
-        <v>0.0005438941418908263</v>
+        <v>0.004283553562641578</v>
       </c>
       <c r="T16">
-        <v>0.0005438941418908265</v>
+        <v>0.004283553562641576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H17">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N17">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O17">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P17">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q17">
-        <v>7.289570866666666E-05</v>
+        <v>0.00516444199311111</v>
       </c>
       <c r="R17">
-        <v>0.000656061378</v>
+        <v>0.046479977938</v>
       </c>
       <c r="S17">
-        <v>1.618473822905072E-05</v>
+        <v>0.0004743890574436308</v>
       </c>
       <c r="T17">
-        <v>1.618473822905073E-05</v>
+        <v>0.0004743890574436307</v>
       </c>
     </row>
   </sheetData>
